--- a/medicine/Maladies infectieuses/Sous-secrétaire_d'État_parlementaire_pour_le_déploiement_du_vaccin_COVID-19/Sous-secrétaire_d'État_parlementaire_pour_le_déploiement_du_vaccin_COVID-19.xlsx
+++ b/medicine/Maladies infectieuses/Sous-secrétaire_d'État_parlementaire_pour_le_déploiement_du_vaccin_COVID-19/Sous-secrétaire_d'État_parlementaire_pour_le_déploiement_du_vaccin_COVID-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sous-secr%C3%A9taire_d%27%C3%89tat_parlementaire_pour_le_d%C3%A9ploiement_du_vaccin_COVID-19</t>
+          <t>Sous-secrétaire_d'État_parlementaire_pour_le_déploiement_du_vaccin_COVID-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sous-secrétaire d'État parlementaire pour le déploiement du vaccin COVID-19 en anglais : Parliamentary Under-Secretary of State for COVID-19 Vaccine Deployment est un poste au département de la Santé et des Affaires sociales du gouvernement du Royaume-Uni. 
 Il est actuellement occupé par la députée Maggie Throup qui a pris ses fonctions le 16 septembre 2021. Le bureau a été créé à la suite de la pandémie de COVID-19 au Royaume-Uni.
-Le sous-secrétaire d'État est responsable de la vaccination contre le COVID-19 au Royaume-Uni[1].
+Le sous-secrétaire d'État est responsable de la vaccination contre le COVID-19 au Royaume-Uni.
 Le sous-secrétaire d'État est suivi par le Cabinet fantôme pour le déploiement du vaccin COVID.
 </t>
         </is>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sous-secr%C3%A9taire_d%27%C3%89tat_parlementaire_pour_le_d%C3%A9ploiement_du_vaccin_COVID-19</t>
+          <t>Sous-secrétaire_d'État_parlementaire_pour_le_déploiement_du_vaccin_COVID-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En février 2021, le ministère annonce que les écoles en Angleterre rouvriraient le 8 mars[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En février 2021, le ministère annonce que les écoles en Angleterre rouvriraient le 8 mars.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sous-secr%C3%A9taire_d%27%C3%89tat_parlementaire_pour_le_d%C3%A9ploiement_du_vaccin_COVID-19</t>
+          <t>Sous-secrétaire_d'État_parlementaire_pour_le_déploiement_du_vaccin_COVID-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
